--- a/api/name_list.xlsx
+++ b/api/name_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jobja\Desktop\Project\Preprogramming62Hotmail\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3543BC-D5E3-4142-B118-380AA35A7BC7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DC0E24-CFD0-4D4F-8A03-0752F4CE1D12}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="80">
   <si>
     <t>A</t>
   </si>
@@ -262,16 +262,30 @@
   </si>
   <si>
     <t>มุกมิก</t>
+  </si>
+  <si>
+    <t>http://www.buckinghamandcompany.com.au/wp-content/uploads/2016/03/profile-placeholder.png</t>
+  </si>
+  <si>
+    <t>Image</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -339,40 +353,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -417,9 +401,33 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
-      </right>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -429,10 +437,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -456,6 +465,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -465,11 +477,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -784,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="L65" sqref="L65"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,7 +808,8 @@
     <col min="3" max="3" width="9.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="102" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
@@ -808,18 +822,20 @@
       <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
+      <c r="F1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
       <c r="P1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
@@ -844,7 +860,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
@@ -853,11 +869,11 @@
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
+      <c r="E2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="P2" s="1"/>
       <c r="U2" s="1"/>
@@ -883,7 +899,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3">
@@ -892,11 +908,11 @@
       <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2</v>
+      <c r="E3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="P3" s="1"/>
       <c r="U3" s="1"/>
@@ -922,7 +938,7 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
@@ -931,11 +947,11 @@
       <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1">
-        <v>3</v>
+      <c r="E4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="P4" s="1"/>
       <c r="U4" s="1"/>
@@ -961,7 +977,7 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="3">
@@ -970,11 +986,11 @@
       <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4</v>
+      <c r="E5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="P5" s="1"/>
       <c r="U5" s="1"/>
@@ -1000,7 +1016,7 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
@@ -1009,11 +1025,11 @@
       <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1">
-        <v>5</v>
+      <c r="E6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="P6" s="1"/>
       <c r="U6" s="1"/>
@@ -1039,7 +1055,7 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="3">
@@ -1048,11 +1064,11 @@
       <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1">
-        <v>6</v>
+      <c r="E7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="P7" s="1"/>
       <c r="U7" s="1"/>
@@ -1078,7 +1094,7 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
@@ -1087,11 +1103,11 @@
       <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="1">
-        <v>7</v>
+      <c r="E8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="P8" s="1"/>
       <c r="U8" s="1"/>
@@ -1117,7 +1133,7 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="3">
@@ -1126,11 +1142,11 @@
       <c r="D9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="1">
-        <v>8</v>
+      <c r="E9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="P9" s="1"/>
       <c r="U9" s="1"/>
@@ -1156,7 +1172,7 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
@@ -1165,11 +1181,11 @@
       <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="1">
-        <v>9</v>
+      <c r="E10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="P10" s="1"/>
       <c r="U10" s="1"/>
@@ -1195,7 +1211,7 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="3">
@@ -1204,11 +1220,11 @@
       <c r="D11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="1">
-        <v>10</v>
+      <c r="E11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="P11" s="1"/>
       <c r="U11" s="1"/>
@@ -1234,7 +1250,7 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="3">
@@ -1243,11 +1259,11 @@
       <c r="D12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="1">
-        <v>11</v>
+      <c r="E12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="P12" s="1"/>
       <c r="U12" s="1"/>
@@ -1273,7 +1289,7 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="3">
@@ -1282,11 +1298,11 @@
       <c r="D13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="1">
-        <v>12</v>
+      <c r="E13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="P13" s="1"/>
       <c r="U13" s="1"/>
@@ -1312,7 +1328,7 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="3">
@@ -1321,11 +1337,11 @@
       <c r="D14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="1">
-        <v>13</v>
+      <c r="E14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="P14" s="1"/>
       <c r="U14" s="1"/>
@@ -1351,7 +1367,7 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="3">
@@ -1360,11 +1376,11 @@
       <c r="D15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="1">
-        <v>14</v>
+      <c r="F15" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="P15" s="1"/>
       <c r="U15" s="1"/>
@@ -1390,7 +1406,7 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="3">
@@ -1399,11 +1415,11 @@
       <c r="D16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="1">
-        <v>15</v>
+      <c r="F16" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1432,7 +1448,7 @@
       <c r="A17" s="2">
         <v>1</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="3">
@@ -1441,11 +1457,11 @@
       <c r="D17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="1">
-        <v>16</v>
+      <c r="E17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1479,7 +1495,7 @@
       <c r="A18" s="2">
         <v>2</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="3">
@@ -1488,11 +1504,11 @@
       <c r="D18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="1">
-        <v>17</v>
+      <c r="E18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1527,7 +1543,7 @@
       <c r="A19" s="2">
         <v>3</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="3">
@@ -1536,11 +1552,11 @@
       <c r="D19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="1">
-        <v>18</v>
+      <c r="E19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1575,7 +1591,7 @@
       <c r="A20" s="2">
         <v>4</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="3">
@@ -1584,11 +1600,11 @@
       <c r="D20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="1">
-        <v>19</v>
+      <c r="E20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1623,7 +1639,7 @@
       <c r="A21" s="2">
         <v>5</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="3">
@@ -1632,11 +1648,11 @@
       <c r="D21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="1">
-        <v>20</v>
+      <c r="E21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1671,7 +1687,7 @@
       <c r="A22" s="2">
         <v>6</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="3">
@@ -1680,11 +1696,11 @@
       <c r="D22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="1">
-        <v>21</v>
+      <c r="E22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1719,7 +1735,7 @@
       <c r="A23" s="2">
         <v>7</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="3">
@@ -1728,11 +1744,11 @@
       <c r="D23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="1">
-        <v>22</v>
+      <c r="E23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1767,7 +1783,7 @@
       <c r="A24" s="2">
         <v>8</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="3">
@@ -1776,11 +1792,11 @@
       <c r="D24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="1">
-        <v>23</v>
+      <c r="E24" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1815,7 +1831,7 @@
       <c r="A25" s="2">
         <v>9</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="3">
@@ -1824,11 +1840,11 @@
       <c r="D25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="1">
-        <v>24</v>
+      <c r="E25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1863,7 +1879,7 @@
       <c r="A26" s="2">
         <v>10</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="3">
@@ -1872,11 +1888,11 @@
       <c r="D26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="1">
-        <v>25</v>
+      <c r="E26" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1911,7 +1927,7 @@
       <c r="A27" s="2">
         <v>11</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="3">
@@ -1920,11 +1936,11 @@
       <c r="D27" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="1">
-        <v>26</v>
+      <c r="F27" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1959,7 +1975,7 @@
       <c r="A28" s="2">
         <v>12</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="3">
@@ -1968,11 +1984,11 @@
       <c r="D28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="1">
-        <v>27</v>
+      <c r="F28" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -2007,7 +2023,7 @@
       <c r="A29" s="2">
         <v>1</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C29" s="3">
@@ -2016,11 +2032,11 @@
       <c r="D29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="1">
-        <v>28</v>
+      <c r="E29" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -2055,7 +2071,7 @@
       <c r="A30" s="2">
         <v>2</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="3">
@@ -2064,11 +2080,11 @@
       <c r="D30" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="1">
-        <v>29</v>
+      <c r="E30" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -2103,7 +2119,7 @@
       <c r="A31" s="2">
         <v>3</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="3">
@@ -2112,11 +2128,11 @@
       <c r="D31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="1">
-        <v>30</v>
+      <c r="E31" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -2151,7 +2167,7 @@
       <c r="A32" s="2">
         <v>4</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="3">
@@ -2160,11 +2176,11 @@
       <c r="D32" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="1">
-        <v>31</v>
+      <c r="E32" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -2199,7 +2215,7 @@
       <c r="A33" s="2">
         <v>5</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C33" s="3">
@@ -2208,11 +2224,11 @@
       <c r="D33" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="1">
-        <v>32</v>
+      <c r="E33" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -2247,7 +2263,7 @@
       <c r="A34" s="2">
         <v>6</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C34" s="3">
@@ -2256,11 +2272,11 @@
       <c r="D34" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="1">
-        <v>33</v>
+      <c r="E34" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -2295,7 +2311,7 @@
       <c r="A35" s="2">
         <v>7</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C35" s="3">
@@ -2304,11 +2320,11 @@
       <c r="D35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="1">
-        <v>34</v>
+      <c r="E35" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -2343,7 +2359,7 @@
       <c r="A36" s="2">
         <v>8</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="3">
@@ -2352,11 +2368,11 @@
       <c r="D36" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="1">
-        <v>35</v>
+      <c r="E36" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -2391,7 +2407,7 @@
       <c r="A37" s="2">
         <v>9</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="3">
@@ -2400,11 +2416,11 @@
       <c r="D37" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="1">
-        <v>36</v>
+      <c r="E37" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -2439,7 +2455,7 @@
       <c r="A38" s="2">
         <v>10</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C38" s="3">
@@ -2448,11 +2464,11 @@
       <c r="D38" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="1">
-        <v>37</v>
+      <c r="E38" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -2487,7 +2503,7 @@
       <c r="A39" s="2">
         <v>11</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C39" s="3">
@@ -2496,11 +2512,11 @@
       <c r="D39" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="1">
-        <v>38</v>
+      <c r="E39" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -2535,7 +2551,7 @@
       <c r="A40" s="2">
         <v>12</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="3">
@@ -2544,11 +2560,11 @@
       <c r="D40" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="1">
-        <v>39</v>
+      <c r="E40" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -2583,7 +2599,7 @@
       <c r="A41" s="2">
         <v>13</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C41" s="3">
@@ -2592,11 +2608,11 @@
       <c r="D41" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="1">
-        <v>40</v>
+      <c r="E41" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -2631,7 +2647,7 @@
       <c r="A42" s="2">
         <v>14</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="3">
@@ -2640,11 +2656,11 @@
       <c r="D42" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="1">
-        <v>41</v>
+      <c r="F42" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -2679,7 +2695,7 @@
       <c r="A43" s="2">
         <v>15</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C43" s="3">
@@ -2688,11 +2704,11 @@
       <c r="D43" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="1">
-        <v>42</v>
+      <c r="F43" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -2727,7 +2743,7 @@
       <c r="A44" s="2">
         <v>1</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="3">
@@ -2736,11 +2752,11 @@
       <c r="D44" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="1">
-        <v>43</v>
+      <c r="E44" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -2775,7 +2791,7 @@
       <c r="A45" s="2">
         <v>2</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="3">
@@ -2784,11 +2800,11 @@
       <c r="D45" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="1">
-        <v>44</v>
+      <c r="E45" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -2823,7 +2839,7 @@
       <c r="A46" s="2">
         <v>3</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C46" s="3">
@@ -2832,11 +2848,11 @@
       <c r="D46" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E46" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="1">
-        <v>45</v>
+      <c r="E46" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -2871,7 +2887,7 @@
       <c r="A47" s="2">
         <v>4</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C47" s="3">
@@ -2880,11 +2896,11 @@
       <c r="D47" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E47" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="1">
-        <v>46</v>
+      <c r="E47" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -2919,7 +2935,7 @@
       <c r="A48" s="2">
         <v>5</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="3">
@@ -2928,11 +2944,11 @@
       <c r="D48" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E48" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="1">
-        <v>47</v>
+      <c r="E48" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -2967,7 +2983,7 @@
       <c r="A49" s="2">
         <v>6</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C49" s="3">
@@ -2976,11 +2992,11 @@
       <c r="D49" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E49" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="1">
-        <v>48</v>
+      <c r="E49" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -3015,7 +3031,7 @@
       <c r="A50" s="2">
         <v>7</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C50" s="3">
@@ -3024,11 +3040,11 @@
       <c r="D50" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E50" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="1">
-        <v>49</v>
+      <c r="E50" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -3063,7 +3079,7 @@
       <c r="A51" s="2">
         <v>8</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C51" s="3">
@@ -3072,18 +3088,18 @@
       <c r="D51" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E51" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="1">
-        <v>50</v>
+      <c r="E51" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>9</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C52" s="3">
@@ -3092,18 +3108,18 @@
       <c r="D52" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E52" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" s="1">
-        <v>51</v>
+      <c r="E52" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>10</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C53" s="3">
@@ -3112,18 +3128,18 @@
       <c r="D53" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E53" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="1">
-        <v>52</v>
+      <c r="E53" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>11</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C54" s="3">
@@ -3132,18 +3148,18 @@
       <c r="D54" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E54" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="1">
-        <v>53</v>
+      <c r="E54" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>12</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C55" s="3">
@@ -3152,18 +3168,18 @@
       <c r="D55" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E55" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="1">
-        <v>54</v>
+      <c r="E55" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>13</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C56" s="3">
@@ -3172,18 +3188,18 @@
       <c r="D56" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F56" s="1">
-        <v>55</v>
+      <c r="F56" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>14</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C57" s="3">
@@ -3192,18 +3208,18 @@
       <c r="D57" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F57" s="1">
-        <v>56</v>
+      <c r="F57" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>1</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C58" s="3">
@@ -3212,18 +3228,18 @@
       <c r="D58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="1">
-        <v>57</v>
+      <c r="E58" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>2</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C59" s="3">
@@ -3232,18 +3248,18 @@
       <c r="D59" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="1">
-        <v>58</v>
+      <c r="E59" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>3</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C60" s="3">
@@ -3252,18 +3268,18 @@
       <c r="D60" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E60" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" s="1">
-        <v>59</v>
+      <c r="E60" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>4</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C61" s="3">
@@ -3272,18 +3288,18 @@
       <c r="D61" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="1">
-        <v>60</v>
+      <c r="E61" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>5</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C62" s="3">
@@ -3292,18 +3308,18 @@
       <c r="D62" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="1">
-        <v>61</v>
+      <c r="E62" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>6</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C63" s="3">
@@ -3312,18 +3328,18 @@
       <c r="D63" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="1">
-        <v>62</v>
+      <c r="E63" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>7</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C64" s="3">
@@ -3332,18 +3348,18 @@
       <c r="D64" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E64" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="1">
-        <v>63</v>
+      <c r="E64" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>8</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C65" s="3">
@@ -3352,18 +3368,18 @@
       <c r="D65" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E65" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="1">
-        <v>64</v>
+      <c r="E65" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>9</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C66" s="3">
@@ -3372,18 +3388,18 @@
       <c r="D66" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E66" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="1">
-        <v>65</v>
+      <c r="E66" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>10</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C67" s="3">
@@ -3392,18 +3408,18 @@
       <c r="D67" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E67" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="1">
-        <v>66</v>
+      <c r="E67" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>11</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C68" s="3">
@@ -3412,18 +3428,18 @@
       <c r="D68" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E68" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="1">
-        <v>67</v>
+      <c r="E68" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>12</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C69" s="3">
@@ -3432,18 +3448,18 @@
       <c r="D69" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E69" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" s="1">
-        <v>68</v>
+      <c r="E69" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>13</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C70" s="3">
@@ -3452,18 +3468,18 @@
       <c r="D70" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E70" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" s="1">
-        <v>69</v>
+      <c r="E70" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>14</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C71" s="3">
@@ -3472,37 +3488,41 @@
       <c r="D71" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F71" s="1">
-        <v>70</v>
+      <c r="F71" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>15</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C72" s="10">
+      <c r="C72" s="8">
         <v>3</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="E72" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F72" s="1">
-        <v>71</v>
+      <c r="F72" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R73" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{27F8861E-16C9-4BAD-9911-F9AC7E6814CD}"/>
+    <hyperlink ref="F3:F72" r:id="rId2" display="http://www.buckinghamandcompany.com.au/wp-content/uploads/2016/03/profile-placeholder.png" xr:uid="{9C62B3E8-A625-496F-BA7C-1AEC15336688}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>